--- a/office/LAB11.xlsx
+++ b/office/LAB11.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jpr\django\pc-notebook\office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hornir\Documents\GitHub\pc-notebook\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{669BBC86-D11F-4AAE-BB27-41BE776B3AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{088E0F21-7C77-4C78-BD5E-DC3A5F6FB646}"/>
+    <workbookView xWindow="1752" yWindow="-120" windowWidth="37716" windowHeight="21840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$D$5:$F$10</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,9 +44,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -96,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -104,81 +103,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="mediumDashDot">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="mediumDashDot">
-        <color auto="1"/>
-      </top>
-      <bottom style="mediumDashDot">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="mediumDashDot">
-        <color auto="1"/>
-      </top>
-      <bottom style="mediumDashDot">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="mediumDashDot">
-        <color auto="1"/>
-      </right>
-      <top style="mediumDashDot">
-        <color auto="1"/>
-      </top>
-      <bottom style="mediumDashDot">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <border>
-        <bottom style="mediumDashDot">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -186,16 +127,7 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.0\ &quot;₽&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#,##0.0\ &quot;₽&quot;"/>
+      <numFmt numFmtId="164" formatCode="#,##0.0\ &quot;₽&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -216,32 +148,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF5F5033-C63D-4C77-80A9-52618E7ED7F8}" name="Таблица1" displayName="Таблица1" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2" xr:uid="{AF5F5033-C63D-4C77-80A9-52618E7ED7F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C0B49A02-ECC8-4678-8241-669984729A75}" name="Начислено" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{A3F1261C-B7B7-4BAB-ADD0-1BECE56441C5}" name="Удержано"/>
-    <tableColumn id="3" xr3:uid="{0708FDD2-3248-40B9-A5D2-E9BAE8375AD2}" name="Доход" dataDxfId="6">
+    <tableColumn id="1" name="Начислено" dataDxfId="2"/>
+    <tableColumn id="2" name="Удержано"/>
+    <tableColumn id="3" name="Доход" dataDxfId="1">
       <calculatedColumnFormula>B2*3.4+9.7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9D89E19A-5331-46A0-8A52-4C43E20E4B94}" name="Выплачено" dataDxfId="5"/>
+    <tableColumn id="4" name="Выплачено" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A1E43A3B-8211-472B-A37A-CDF54625D0DA}" name="Таблица13" displayName="Таблица13" ref="F1:I2" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
-  <autoFilter ref="F1:I2" xr:uid="{A1E43A3B-8211-472B-A37A-CDF54625D0DA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="F1:I2" totalsRowShown="0">
+  <autoFilter ref="F1:I2"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0F117B3E-2D14-41EB-9872-364D4743B921}" name="Начислено" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{3227BB7E-924A-4042-9AD1-EAD593F35443}" name="Удержано"/>
-    <tableColumn id="3" xr3:uid="{97D363E0-EAB9-49EB-862A-6BAD4B481035}" name="Доход" dataDxfId="3">
+    <tableColumn id="1" name="Начислено"/>
+    <tableColumn id="2" name="Удержано"/>
+    <tableColumn id="3" name="Доход">
       <calculatedColumnFormula>G2*3.4+9.7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BDE095A3-B3BA-41AA-948E-5C83DE7C3CA2}" name="Выплачено" dataDxfId="2"/>
+    <tableColumn id="4" name="Выплачено"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -541,22 +473,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F121543-4590-422F-BC92-D56E9C8A0284}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:9" ht="21.6" x14ac:dyDescent="0.7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,20 +505,20 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>5678.34</v>
       </c>
